--- a/02.Implementación de proyecto/Primer Sprint/SGySHT_ControlRiesgos_v1.xlsx
+++ b/02.Implementación de proyecto/Primer Sprint/SGySHT_ControlRiesgos_v1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t># Riesgo</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Tomar asesoria con un especialista de acuerdo a la  necesidad</t>
+  </si>
+  <si>
+    <t>Los integrantes del equipo de desarrollo no administran de manera correcta el sofware de gestion de proyecto</t>
+  </si>
+  <si>
+    <t>Cambiar de software para llevar la gestion de seguimineto del proyecto</t>
+  </si>
+  <si>
+    <t>utilizar el software de gestion para administrar el proyecto a diario</t>
   </si>
 </sst>
 </file>
@@ -500,14 +509,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>143386</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71693</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2140565</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>134959</xdr:rowOff>
+      <xdr:rowOff>30575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -524,8 +533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1249515" y="256048"/>
-          <a:ext cx="1997179" cy="800685"/>
+          <a:off x="1252461" y="149980"/>
+          <a:ext cx="1997179" cy="793951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,7 +891,7 @@
   <dimension ref="A4:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,9 +979,11 @@
       <c r="G11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>43589</v>
+      </c>
       <c r="I11" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>10</v>
@@ -1001,7 +1012,9 @@
       <c r="G12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>43589</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1045,9 @@
       <c r="G13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>43589</v>
+      </c>
       <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1078,9 @@
       <c r="G14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>43589</v>
+      </c>
       <c r="I14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1108,9 @@
       <c r="G15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <v>43589</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1138,9 @@
       <c r="G16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>43589</v>
+      </c>
       <c r="I16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1168,9 @@
       <c r="G17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>43589</v>
+      </c>
       <c r="I17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1175,9 +1198,11 @@
       <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>43589</v>
+      </c>
       <c r="I18" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1203,24 +1228,42 @@
       <c r="G19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>43589</v>
+      </c>
       <c r="I19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+    <row r="20" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="13">
+        <v>4</v>
+      </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6">
+        <v>43589</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>

--- a/02.Implementación de proyecto/Primer Sprint/SGySHT_ControlRiesgos_v1.xlsx
+++ b/02.Implementación de proyecto/Primer Sprint/SGySHT_ControlRiesgos_v1.xlsx
@@ -217,10 +217,10 @@
     <t>Los integrantes del equipo de desarrollo no administran de manera correcta el sofware de gestion de proyecto</t>
   </si>
   <si>
-    <t>Cambiar de software para llevar la gestion de seguimineto del proyecto</t>
-  </si>
-  <si>
-    <t>utilizar el software de gestion para administrar el proyecto a diario</t>
+    <t>utilizar y actualizar el software de gestion para administrar el proyecto a diario</t>
+  </si>
+  <si>
+    <t>Cambiar de software para llevar la gestion del seguimiento del proyecto</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <dimension ref="A4:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1253,10 +1253,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="H20" s="6">
         <v>43589</v>
